--- a/Stir Plate v1.0 Bill of Materials.xlsx
+++ b/Stir Plate v1.0 Bill of Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jphilips\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jphilips\Documents\GitHub\stir-plate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -603,536 +603,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="40.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="9.21875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="41.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="6" max="6" width="9.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>14</v>
       </c>
       <c r="G2" s="8">
+        <f>E2*F2</f>
         <v>14</v>
       </c>
-      <c r="H2" s="8">
-        <f>F2*G2</f>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G22" si="0">E3*F3</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5.09</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.63</v>
+      </c>
+      <c r="G5" s="10">
+        <f>E5*F5</f>
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3.73</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>6.49</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.96</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2.52</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H22" si="0">F3*G3</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5.09</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" si="0"/>
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1.63</v>
-      </c>
-      <c r="H5" s="10">
-        <f>F5*G5</f>
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3.73</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="0"/>
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>6.49</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="0"/>
-        <v>6.49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1.96</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F16" s="10">
+        <v>5.28E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>2.52</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="0"/>
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.152</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="9">
+      <c r="E21" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="10">
-        <v>5.28E-2</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F21" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" si="0"/>
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.152</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="0"/>
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1</v>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.14000000000000001</v>
       </c>
       <c r="G22" s="13">
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="H22" s="13">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="6" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="5">
-        <f>SUM(H2:H22)</f>
+      <c r="G24" s="5">
+        <f>SUM(G2:G22)</f>
         <v>50.186599999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G25" s="6" t="s">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="5">
-        <f>0.075*H24</f>
+      <c r="G25" s="5">
+        <f>0.075*G24</f>
         <v>3.7639949999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G26" s="6" t="s">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="5">
-        <f>H25+H24</f>
+      <c r="G26" s="5">
+        <f>G25+G24</f>
         <v>53.950595</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>